--- a/CooperDi/Mock EGE exams/mock_ege_25049996_PREEXAM/18_15334.xlsx
+++ b/CooperDi/Mock EGE exams/mock_ege_25049996_PREEXAM/18_15334.xlsx
@@ -1,27 +1,66 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GitHub repos\ICT_EGE\CooperDi\Mock EGE exams\mock_ege_25049996_PREEXAM\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D773B31-7728-45A3-A54E-0056BD8364A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="360" windowWidth="28515" windowHeight="12315"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>В ответ</t>
+  </si>
+  <si>
+    <t>МАКС</t>
+  </si>
+  <si>
+    <t>МИН</t>
+  </si>
+  <si>
+    <t>Направление</t>
+  </si>
+  <si>
+    <t>Шаги</t>
+  </si>
+  <si>
+    <t>Вправо</t>
+  </si>
+  <si>
+    <t>Вниз</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -30,13 +69,46 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -131,7 +203,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -141,14 +213,129 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>590160</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>47175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>250440</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>176910</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="4" name="Рукописный ввод 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3655129-C63B-492E-AB5B-13F7811631D7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="12782160" y="628200"/>
+            <a:ext cx="879480" cy="329760"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="4" name="Рукописный ввод 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3655129-C63B-492E-AB5B-13F7811631D7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="12773520" y="619560"/>
+              <a:ext cx="897120" cy="347400"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-04-22T13:43:20.798"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1,'14'0,"1"2,-1 0,1 0,-1 2,0-1,15 8,84 40,-46-19,1666 648,-1457-583,-242-86</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="641.88">2171 451,'78'102,"-62"-84,17 17,-2 1,-1 1,47 80,-76-116,0 1,0-1,-1 1,1 0,0-1,-1 1,0 0,1-1,-1 1,0 0,0 0,1-1,-1 1,-1 0,1 0,0-1,0 1,-1 0,1 0,-1-1,1 1,-1-1,-1 3,0-1,0-1,0 0,0 0,-1 0,1 0,-1 0,1-1,-1 1,1-1,-1 1,0-1,-4 1,-9 2,1 0,-1-2,-31 2,47-4,-198 3,119-4,0 3,0 3,-86 18,130-15</inkml:trace>
+</inkml:ink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -194,7 +381,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -226,9 +413,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -260,6 +465,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -435,14 +658,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:W41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V21" sqref="V21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" thickTop="1">
+    <row r="1" spans="1:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4">
         <v>99</v>
       </c>
@@ -504,7 +729,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>52</v>
       </c>
@@ -566,7 +791,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>64</v>
       </c>
@@ -591,7 +816,7 @@
       <c r="H3" s="1">
         <v>61</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="13">
         <v>49</v>
       </c>
       <c r="J3" s="1">
@@ -627,8 +852,11 @@
       <c r="T3" s="3">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" ht="15.75" thickBot="1">
+      <c r="V3" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>44</v>
       </c>
@@ -653,7 +881,7 @@
       <c r="H4" s="1">
         <v>15</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="13">
         <v>35</v>
       </c>
       <c r="J4" s="1">
@@ -690,20 +918,20 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="15.75" thickTop="1">
+    <row r="5" spans="1:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>79</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="11">
         <v>9</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="11">
         <v>75</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="12">
         <v>45</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="10">
         <v>68</v>
       </c>
       <c r="F5" s="1">
@@ -715,7 +943,7 @@
       <c r="H5" s="1">
         <v>60</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="13">
         <v>47</v>
       </c>
       <c r="J5" s="1">
@@ -752,7 +980,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="15.75" thickBot="1">
+    <row r="6" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>37</v>
       </c>
@@ -765,7 +993,7 @@
       <c r="D6" s="3">
         <v>49</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="10">
         <v>41</v>
       </c>
       <c r="F6" s="1">
@@ -777,7 +1005,7 @@
       <c r="H6" s="1">
         <v>18</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="14">
         <v>7</v>
       </c>
       <c r="J6" s="8">
@@ -807,14 +1035,14 @@
       <c r="R6" s="3">
         <v>90</v>
       </c>
-      <c r="S6" s="1">
+      <c r="S6" s="10">
         <v>60</v>
       </c>
       <c r="T6" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15.75" thickTop="1">
+    <row r="7" spans="1:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>78</v>
       </c>
@@ -827,7 +1055,7 @@
       <c r="D7" s="3">
         <v>56</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="10">
         <v>20</v>
       </c>
       <c r="F7" s="1">
@@ -839,25 +1067,25 @@
       <c r="H7" s="1">
         <v>19</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="10">
         <v>11</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="10">
         <v>14</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="10">
         <v>5</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7" s="10">
         <v>11</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7" s="10">
         <v>5</v>
       </c>
-      <c r="N7" s="1">
+      <c r="N7" s="10">
         <v>66</v>
       </c>
-      <c r="O7" s="1">
+      <c r="O7" s="10">
         <v>82</v>
       </c>
       <c r="P7" s="1">
@@ -869,14 +1097,17 @@
       <c r="R7" s="3">
         <v>58</v>
       </c>
-      <c r="S7" s="1">
+      <c r="S7" s="10">
         <v>46</v>
       </c>
       <c r="T7" s="3">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:20">
+      <c r="V7" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>47</v>
       </c>
@@ -889,7 +1120,7 @@
       <c r="D8" s="3">
         <v>36</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="10">
         <v>75</v>
       </c>
       <c r="F8" s="1">
@@ -931,14 +1162,17 @@
       <c r="R8" s="3">
         <v>94</v>
       </c>
-      <c r="S8" s="1">
+      <c r="S8" s="10">
         <v>42</v>
       </c>
       <c r="T8" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:20">
+      <c r="V8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>59</v>
       </c>
@@ -951,7 +1185,7 @@
       <c r="D9" s="3">
         <v>39</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="10">
         <v>60</v>
       </c>
       <c r="F9" s="1">
@@ -993,14 +1227,17 @@
       <c r="R9" s="3">
         <v>72</v>
       </c>
-      <c r="S9" s="1">
+      <c r="S9" s="10">
         <v>47</v>
       </c>
       <c r="T9" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:20">
+      <c r="V9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>69</v>
       </c>
@@ -1013,7 +1250,7 @@
       <c r="D10" s="3">
         <v>41</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="10">
         <v>55</v>
       </c>
       <c r="F10" s="1">
@@ -1055,14 +1292,14 @@
       <c r="R10" s="3">
         <v>27</v>
       </c>
-      <c r="S10" s="1">
+      <c r="S10" s="10">
         <v>67</v>
       </c>
       <c r="T10" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>83</v>
       </c>
@@ -1075,7 +1312,7 @@
       <c r="D11" s="3">
         <v>35</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="10">
         <v>50</v>
       </c>
       <c r="F11" s="1">
@@ -1117,14 +1354,14 @@
       <c r="R11" s="3">
         <v>30</v>
       </c>
-      <c r="S11" s="1">
+      <c r="S11" s="10">
         <v>55</v>
       </c>
       <c r="T11" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>29</v>
       </c>
@@ -1137,7 +1374,7 @@
       <c r="D12" s="3">
         <v>88</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="10">
         <v>88</v>
       </c>
       <c r="F12" s="1">
@@ -1179,14 +1416,14 @@
       <c r="R12" s="3">
         <v>13</v>
       </c>
-      <c r="S12" s="1">
+      <c r="S12" s="10">
         <v>77</v>
       </c>
       <c r="T12" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15.75" thickBot="1">
+    <row r="13" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>37</v>
       </c>
@@ -1199,7 +1436,7 @@
       <c r="D13" s="3">
         <v>70</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="10">
         <v>75</v>
       </c>
       <c r="F13" s="1">
@@ -1241,14 +1478,14 @@
       <c r="R13" s="3">
         <v>45</v>
       </c>
-      <c r="S13" s="1">
+      <c r="S13" s="10">
         <v>28</v>
       </c>
       <c r="T13" s="3">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15.75" thickTop="1">
+    <row r="14" spans="1:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>48</v>
       </c>
@@ -1261,7 +1498,7 @@
       <c r="D14" s="3">
         <v>80</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="10">
         <v>65</v>
       </c>
       <c r="F14" s="1">
@@ -1273,19 +1510,19 @@
       <c r="H14" s="1">
         <v>15</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="11">
         <v>55</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="11">
         <v>42</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K14" s="11">
         <v>15</v>
       </c>
-      <c r="L14" s="5">
+      <c r="L14" s="12">
         <v>36</v>
       </c>
-      <c r="M14" s="1">
+      <c r="M14" s="10">
         <v>50</v>
       </c>
       <c r="N14" s="1">
@@ -1303,14 +1540,17 @@
       <c r="R14" s="3">
         <v>68</v>
       </c>
-      <c r="S14" s="1">
+      <c r="S14" s="10">
         <v>37</v>
       </c>
       <c r="T14" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" ht="15.75" thickBot="1">
+      <c r="V14" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
         <v>60</v>
       </c>
@@ -1347,7 +1587,7 @@
       <c r="L15" s="3">
         <v>60</v>
       </c>
-      <c r="M15" s="1">
+      <c r="M15" s="10">
         <v>76</v>
       </c>
       <c r="N15" s="1">
@@ -1362,17 +1602,23 @@
       <c r="Q15" s="8">
         <v>74</v>
       </c>
-      <c r="R15" s="9">
+      <c r="R15" s="16">
         <v>48</v>
       </c>
-      <c r="S15" s="1">
+      <c r="S15" s="10">
         <v>62</v>
       </c>
       <c r="T15" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" ht="15.75" thickTop="1">
+      <c r="V15" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="W15" s="18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>64</v>
       </c>
@@ -1409,7 +1655,7 @@
       <c r="L16" s="3">
         <v>34</v>
       </c>
-      <c r="M16" s="1">
+      <c r="M16" s="10">
         <v>59</v>
       </c>
       <c r="N16" s="1">
@@ -1418,13 +1664,13 @@
       <c r="O16" s="1">
         <v>12</v>
       </c>
-      <c r="P16" s="1">
+      <c r="P16" s="10">
         <v>31</v>
       </c>
-      <c r="Q16" s="1">
+      <c r="Q16" s="10">
         <v>16</v>
       </c>
-      <c r="R16" s="1">
+      <c r="R16" s="10">
         <v>78</v>
       </c>
       <c r="S16" s="1">
@@ -1433,8 +1679,14 @@
       <c r="T16" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:20">
+      <c r="V16" s="18">
+        <v>2198</v>
+      </c>
+      <c r="W16" s="18">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>75</v>
       </c>
@@ -1471,7 +1723,7 @@
       <c r="L17" s="3">
         <v>50</v>
       </c>
-      <c r="M17" s="1">
+      <c r="M17" s="10">
         <v>10</v>
       </c>
       <c r="N17" s="1">
@@ -1496,7 +1748,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>98</v>
       </c>
@@ -1533,7 +1785,7 @@
       <c r="L18" s="3">
         <v>58</v>
       </c>
-      <c r="M18" s="1">
+      <c r="M18" s="10">
         <v>41</v>
       </c>
       <c r="N18" s="1">
@@ -1558,7 +1810,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>99</v>
       </c>
@@ -1595,7 +1847,7 @@
       <c r="L19" s="3">
         <v>11</v>
       </c>
-      <c r="M19" s="1">
+      <c r="M19" s="10">
         <v>16</v>
       </c>
       <c r="N19" s="1">
@@ -1620,7 +1872,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="15.75" thickBot="1">
+    <row r="20" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
         <v>55</v>
       </c>
@@ -1654,10 +1906,10 @@
       <c r="K20" s="8">
         <v>25</v>
       </c>
-      <c r="L20" s="9">
+      <c r="L20" s="16">
         <v>36</v>
       </c>
-      <c r="M20" s="8">
+      <c r="M20" s="15">
         <v>23</v>
       </c>
       <c r="N20" s="8">
@@ -1678,36 +1930,1677 @@
       <c r="S20" s="8">
         <v>18</v>
       </c>
-      <c r="T20" s="9">
+      <c r="T20" s="16">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="15.75" thickTop="1"/>
+    <row r="21" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <f>A1</f>
+        <v>99</v>
+      </c>
+      <c r="B22" s="2">
+        <f>A22+B1</f>
+        <v>169</v>
+      </c>
+      <c r="C22" s="2">
+        <f t="shared" ref="C22:T22" si="0">B22+C1</f>
+        <v>212</v>
+      </c>
+      <c r="D22" s="2">
+        <f t="shared" si="0"/>
+        <v>281</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" si="0"/>
+        <v>293</v>
+      </c>
+      <c r="F22" s="2">
+        <f t="shared" si="0"/>
+        <v>308</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" si="0"/>
+        <v>340</v>
+      </c>
+      <c r="H22" s="2">
+        <f t="shared" si="0"/>
+        <v>403</v>
+      </c>
+      <c r="I22" s="2">
+        <f t="shared" si="0"/>
+        <v>426</v>
+      </c>
+      <c r="J22" s="2">
+        <f t="shared" si="0"/>
+        <v>479</v>
+      </c>
+      <c r="K22" s="2">
+        <f t="shared" si="0"/>
+        <v>485</v>
+      </c>
+      <c r="L22" s="2">
+        <f t="shared" si="0"/>
+        <v>548</v>
+      </c>
+      <c r="M22" s="2">
+        <f t="shared" si="0"/>
+        <v>624</v>
+      </c>
+      <c r="N22" s="2">
+        <f t="shared" si="0"/>
+        <v>677</v>
+      </c>
+      <c r="O22" s="2">
+        <f t="shared" si="0"/>
+        <v>726</v>
+      </c>
+      <c r="P22" s="2">
+        <f t="shared" si="0"/>
+        <v>796</v>
+      </c>
+      <c r="Q22" s="2">
+        <f t="shared" si="0"/>
+        <v>833</v>
+      </c>
+      <c r="R22" s="2">
+        <f t="shared" si="0"/>
+        <v>909</v>
+      </c>
+      <c r="S22" s="2">
+        <f t="shared" si="0"/>
+        <v>926</v>
+      </c>
+      <c r="T22" s="2">
+        <f t="shared" si="0"/>
+        <v>939</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <f>A22+A2</f>
+        <v>151</v>
+      </c>
+      <c r="B23" s="1">
+        <f>MIN(A23,B22)+B2</f>
+        <v>195</v>
+      </c>
+      <c r="C23" s="1">
+        <f>MIN(B23,C22)+C2</f>
+        <v>259</v>
+      </c>
+      <c r="D23" s="1">
+        <f>MIN(C23,D22)+D2</f>
+        <v>326</v>
+      </c>
+      <c r="E23" s="1">
+        <f>MIN(D23,E22)+E2</f>
+        <v>352</v>
+      </c>
+      <c r="F23" s="1">
+        <f>MIN(E23,F22)+F2</f>
+        <v>346</v>
+      </c>
+      <c r="G23" s="1">
+        <f>MIN(F23,G22)+G2</f>
+        <v>392</v>
+      </c>
+      <c r="H23" s="1">
+        <f>MIN(G23,H22)+H2</f>
+        <v>451</v>
+      </c>
+      <c r="I23" s="1">
+        <f>MIN(H23,I22)+I2</f>
+        <v>444</v>
+      </c>
+      <c r="J23" s="1">
+        <f>MIN(I23,J22)+J2</f>
+        <v>507</v>
+      </c>
+      <c r="K23" s="1">
+        <f>MIN(J23,K22)+K2</f>
+        <v>523</v>
+      </c>
+      <c r="L23" s="1">
+        <f>MIN(K23,L22)+L2</f>
+        <v>575</v>
+      </c>
+      <c r="M23" s="1">
+        <f>MIN(L23,M22)+M2</f>
+        <v>623</v>
+      </c>
+      <c r="N23" s="1">
+        <f>MIN(M23,N22)+N2</f>
+        <v>701</v>
+      </c>
+      <c r="O23" s="1">
+        <f>MIN(N23,O22)+O2</f>
+        <v>765</v>
+      </c>
+      <c r="P23" s="1">
+        <f>MIN(O23,P22)+P2</f>
+        <v>803</v>
+      </c>
+      <c r="Q23" s="1">
+        <f>MIN(P23,Q22)+Q2</f>
+        <v>848</v>
+      </c>
+      <c r="R23" s="1">
+        <f>MIN(Q23,R22)+R2</f>
+        <v>926</v>
+      </c>
+      <c r="S23" s="1">
+        <f>MIN(R23,S22)+S2</f>
+        <v>939</v>
+      </c>
+      <c r="T23" s="1">
+        <f>MIN(S23,T22)+T2</f>
+        <v>961</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <f t="shared" ref="A24:A41" si="1">A23+A3</f>
+        <v>215</v>
+      </c>
+      <c r="B24" s="1">
+        <f>MIN(A24,B23)+B3</f>
+        <v>212</v>
+      </c>
+      <c r="C24" s="1">
+        <f>MIN(B24,C23)+C3</f>
+        <v>253</v>
+      </c>
+      <c r="D24" s="1">
+        <f>MIN(C24,D23)+D3</f>
+        <v>316</v>
+      </c>
+      <c r="E24" s="1">
+        <f>MIN(D24,E23)+E3</f>
+        <v>386</v>
+      </c>
+      <c r="F24" s="1">
+        <f>MIN(E24,F23)+F3</f>
+        <v>388</v>
+      </c>
+      <c r="G24" s="1">
+        <f>MIN(F24,G23)+G3</f>
+        <v>411</v>
+      </c>
+      <c r="H24" s="1">
+        <f>MIN(G24,H23)+H3</f>
+        <v>472</v>
+      </c>
+      <c r="I24" s="10">
+        <f>I23+I3</f>
+        <v>493</v>
+      </c>
+      <c r="J24" s="1">
+        <f>MIN(I24,J23)+J3</f>
+        <v>544</v>
+      </c>
+      <c r="K24" s="1">
+        <f>MIN(J24,K23)+K3</f>
+        <v>602</v>
+      </c>
+      <c r="L24" s="1">
+        <f>MIN(K24,L23)+L3</f>
+        <v>616</v>
+      </c>
+      <c r="M24" s="1">
+        <f>MIN(L24,M23)+M3</f>
+        <v>692</v>
+      </c>
+      <c r="N24" s="1">
+        <f>MIN(M24,N23)+N3</f>
+        <v>740</v>
+      </c>
+      <c r="O24" s="1">
+        <f>MIN(N24,O23)+O3</f>
+        <v>802</v>
+      </c>
+      <c r="P24" s="1">
+        <f>MIN(O24,P23)+P3</f>
+        <v>877</v>
+      </c>
+      <c r="Q24" s="1">
+        <f>MIN(P24,Q23)+Q3</f>
+        <v>916</v>
+      </c>
+      <c r="R24" s="1">
+        <f>MIN(Q24,R23)+R3</f>
+        <v>985</v>
+      </c>
+      <c r="S24" s="1">
+        <f>MIN(R24,S23)+S3</f>
+        <v>945</v>
+      </c>
+      <c r="T24" s="1">
+        <f>MIN(S24,T23)+T3</f>
+        <v>967</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="6">
+        <f t="shared" si="1"/>
+        <v>259</v>
+      </c>
+      <c r="B25" s="1">
+        <f>MIN(A25,B24)+B4</f>
+        <v>252</v>
+      </c>
+      <c r="C25" s="1">
+        <f>MIN(B25,C24)+C4</f>
+        <v>296</v>
+      </c>
+      <c r="D25" s="1">
+        <f>MIN(C25,D24)+D4</f>
+        <v>308</v>
+      </c>
+      <c r="E25" s="1">
+        <f>MIN(D25,E24)+E4</f>
+        <v>336</v>
+      </c>
+      <c r="F25" s="1">
+        <f>MIN(E25,F24)+F4</f>
+        <v>345</v>
+      </c>
+      <c r="G25" s="1">
+        <f>MIN(F25,G24)+G4</f>
+        <v>408</v>
+      </c>
+      <c r="H25" s="1">
+        <f>MIN(G25,H24)+H4</f>
+        <v>423</v>
+      </c>
+      <c r="I25" s="10">
+        <f t="shared" ref="I25:I27" si="2">I24+I4</f>
+        <v>528</v>
+      </c>
+      <c r="J25" s="1">
+        <f>MIN(I25,J24)+J4</f>
+        <v>583</v>
+      </c>
+      <c r="K25" s="1">
+        <f>MIN(J25,K24)+K4</f>
+        <v>621</v>
+      </c>
+      <c r="L25" s="1">
+        <f>MIN(K25,L24)+L4</f>
+        <v>666</v>
+      </c>
+      <c r="M25" s="1">
+        <f>MIN(L25,M24)+M4</f>
+        <v>719</v>
+      </c>
+      <c r="N25" s="1">
+        <f>MIN(M25,N24)+N4</f>
+        <v>789</v>
+      </c>
+      <c r="O25" s="1">
+        <f>MIN(N25,O24)+O4</f>
+        <v>851</v>
+      </c>
+      <c r="P25" s="1">
+        <f>MIN(O25,P24)+P4</f>
+        <v>930</v>
+      </c>
+      <c r="Q25" s="1">
+        <f>MIN(P25,Q24)+Q4</f>
+        <v>963</v>
+      </c>
+      <c r="R25" s="1">
+        <f>MIN(Q25,R24)+R4</f>
+        <v>1038</v>
+      </c>
+      <c r="S25" s="1">
+        <f>MIN(R25,S24)+S4</f>
+        <v>1012</v>
+      </c>
+      <c r="T25" s="1">
+        <f>MIN(S25,T24)+T4</f>
+        <v>987</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <f t="shared" si="1"/>
+        <v>338</v>
+      </c>
+      <c r="B26" s="11">
+        <f>A26+B5</f>
+        <v>347</v>
+      </c>
+      <c r="C26" s="11">
+        <f t="shared" ref="C26:D26" si="3">B26+C5</f>
+        <v>422</v>
+      </c>
+      <c r="D26" s="11">
+        <f t="shared" si="3"/>
+        <v>467</v>
+      </c>
+      <c r="E26" s="10">
+        <f>E25+E5</f>
+        <v>404</v>
+      </c>
+      <c r="F26" s="1">
+        <f>MIN(E26,F25)+F5</f>
+        <v>370</v>
+      </c>
+      <c r="G26" s="1">
+        <f>MIN(F26,G25)+G5</f>
+        <v>409</v>
+      </c>
+      <c r="H26" s="1">
+        <f>MIN(G26,H25)+H5</f>
+        <v>469</v>
+      </c>
+      <c r="I26" s="10">
+        <f t="shared" si="2"/>
+        <v>575</v>
+      </c>
+      <c r="J26" s="1">
+        <f>MIN(I26,J25)+J5</f>
+        <v>589</v>
+      </c>
+      <c r="K26" s="1">
+        <f>MIN(J26,K25)+K5</f>
+        <v>617</v>
+      </c>
+      <c r="L26" s="1">
+        <f>MIN(K26,L25)+L5</f>
+        <v>662</v>
+      </c>
+      <c r="M26" s="1">
+        <f>MIN(L26,M25)+M5</f>
+        <v>706</v>
+      </c>
+      <c r="N26" s="1">
+        <f>MIN(M26,N25)+N5</f>
+        <v>788</v>
+      </c>
+      <c r="O26" s="1">
+        <f>MIN(N26,O25)+O5</f>
+        <v>880</v>
+      </c>
+      <c r="P26" s="1">
+        <f>MIN(O26,P25)+P5</f>
+        <v>951</v>
+      </c>
+      <c r="Q26" s="1">
+        <f>MIN(P26,Q25)+Q5</f>
+        <v>997</v>
+      </c>
+      <c r="R26" s="1">
+        <f>MIN(Q26,R25)+R5</f>
+        <v>1081</v>
+      </c>
+      <c r="S26" s="1">
+        <f>MIN(R26,S25)+S5</f>
+        <v>1031</v>
+      </c>
+      <c r="T26" s="1">
+        <f>MIN(S26,T25)+T5</f>
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="6">
+        <f t="shared" si="1"/>
+        <v>375</v>
+      </c>
+      <c r="B27" s="1">
+        <f>MIN(A27,B26)+B6</f>
+        <v>358</v>
+      </c>
+      <c r="C27" s="1">
+        <f>MIN(B27,C26)+C6</f>
+        <v>417</v>
+      </c>
+      <c r="D27" s="1">
+        <f>MIN(C27,D26)+D6</f>
+        <v>466</v>
+      </c>
+      <c r="E27" s="10">
+        <f t="shared" ref="E27:E35" si="4">E26+E6</f>
+        <v>445</v>
+      </c>
+      <c r="F27" s="1">
+        <f>MIN(E27,F26)+F6</f>
+        <v>402</v>
+      </c>
+      <c r="G27" s="1">
+        <f>MIN(F27,G26)+G6</f>
+        <v>415</v>
+      </c>
+      <c r="H27" s="1">
+        <f>MIN(G27,H26)+H6</f>
+        <v>433</v>
+      </c>
+      <c r="I27" s="10">
+        <f t="shared" si="2"/>
+        <v>582</v>
+      </c>
+      <c r="J27" s="1">
+        <f>MIN(I27,J26)+J6</f>
+        <v>600</v>
+      </c>
+      <c r="K27" s="1">
+        <f>MIN(J27,K26)+K6</f>
+        <v>614</v>
+      </c>
+      <c r="L27" s="1">
+        <f>MIN(K27,L26)+L6</f>
+        <v>625</v>
+      </c>
+      <c r="M27" s="1">
+        <f>MIN(L27,M26)+M6</f>
+        <v>630</v>
+      </c>
+      <c r="N27" s="1">
+        <f>MIN(M27,N26)+N6</f>
+        <v>671</v>
+      </c>
+      <c r="O27" s="1">
+        <f>MIN(N27,O26)+O6</f>
+        <v>713</v>
+      </c>
+      <c r="P27" s="1">
+        <f>MIN(O27,P26)+P6</f>
+        <v>785</v>
+      </c>
+      <c r="Q27" s="1">
+        <f>MIN(P27,Q26)+Q6</f>
+        <v>852</v>
+      </c>
+      <c r="R27" s="1">
+        <f>MIN(Q27,R26)+R6</f>
+        <v>942</v>
+      </c>
+      <c r="S27" s="10">
+        <f>S26+S6</f>
+        <v>1091</v>
+      </c>
+      <c r="T27" s="1">
+        <f>MIN(S27,T26)+T6</f>
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
+        <f t="shared" si="1"/>
+        <v>453</v>
+      </c>
+      <c r="B28" s="1">
+        <f>MIN(A28,B27)+B7</f>
+        <v>403</v>
+      </c>
+      <c r="C28" s="1">
+        <f>MIN(B28,C27)+C7</f>
+        <v>446</v>
+      </c>
+      <c r="D28" s="1">
+        <f>MIN(C28,D27)+D7</f>
+        <v>502</v>
+      </c>
+      <c r="E28" s="10">
+        <f t="shared" si="4"/>
+        <v>465</v>
+      </c>
+      <c r="F28" s="1">
+        <f>MIN(E28,F27)+F7</f>
+        <v>474</v>
+      </c>
+      <c r="G28" s="1">
+        <f>MIN(F28,G27)+G7</f>
+        <v>430</v>
+      </c>
+      <c r="H28" s="1">
+        <f>MIN(G28,H27)+H7</f>
+        <v>449</v>
+      </c>
+      <c r="I28" s="11">
+        <f t="shared" ref="I28:O28" si="5">H28+I7</f>
+        <v>460</v>
+      </c>
+      <c r="J28" s="11">
+        <f t="shared" si="5"/>
+        <v>474</v>
+      </c>
+      <c r="K28" s="11">
+        <f t="shared" si="5"/>
+        <v>479</v>
+      </c>
+      <c r="L28" s="11">
+        <f t="shared" si="5"/>
+        <v>490</v>
+      </c>
+      <c r="M28" s="11">
+        <f t="shared" si="5"/>
+        <v>495</v>
+      </c>
+      <c r="N28" s="11">
+        <f t="shared" si="5"/>
+        <v>561</v>
+      </c>
+      <c r="O28" s="11">
+        <f t="shared" si="5"/>
+        <v>643</v>
+      </c>
+      <c r="P28" s="1">
+        <f>MIN(O28,P27)+P7</f>
+        <v>721</v>
+      </c>
+      <c r="Q28" s="1">
+        <f>MIN(P28,Q27)+Q7</f>
+        <v>791</v>
+      </c>
+      <c r="R28" s="1">
+        <f>MIN(Q28,R27)+R7</f>
+        <v>849</v>
+      </c>
+      <c r="S28" s="10">
+        <f t="shared" ref="S28:S36" si="6">S27+S7</f>
+        <v>1137</v>
+      </c>
+      <c r="T28" s="1">
+        <f>MIN(S28,T27)+T7</f>
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="B29" s="1">
+        <f>MIN(A29,B28)+B8</f>
+        <v>427</v>
+      </c>
+      <c r="C29" s="1">
+        <f>MIN(B29,C28)+C8</f>
+        <v>493</v>
+      </c>
+      <c r="D29" s="1">
+        <f>MIN(C29,D28)+D8</f>
+        <v>529</v>
+      </c>
+      <c r="E29" s="10">
+        <f t="shared" si="4"/>
+        <v>540</v>
+      </c>
+      <c r="F29" s="1">
+        <f>MIN(E29,F28)+F8</f>
+        <v>546</v>
+      </c>
+      <c r="G29" s="1">
+        <f>MIN(F29,G28)+G8</f>
+        <v>442</v>
+      </c>
+      <c r="H29" s="1">
+        <f>MIN(G29,H28)+H8</f>
+        <v>460</v>
+      </c>
+      <c r="I29" s="1">
+        <f>MIN(H29,I28)+I8</f>
+        <v>478</v>
+      </c>
+      <c r="J29" s="1">
+        <f>MIN(I29,J28)+J8</f>
+        <v>483</v>
+      </c>
+      <c r="K29" s="1">
+        <f>MIN(J29,K28)+K8</f>
+        <v>484</v>
+      </c>
+      <c r="L29" s="1">
+        <f>MIN(K29,L28)+L8</f>
+        <v>492</v>
+      </c>
+      <c r="M29" s="1">
+        <f>MIN(L29,M28)+M8</f>
+        <v>510</v>
+      </c>
+      <c r="N29" s="1">
+        <f>MIN(M29,N28)+N8</f>
+        <v>593</v>
+      </c>
+      <c r="O29" s="1">
+        <f>MIN(N29,O28)+O8</f>
+        <v>653</v>
+      </c>
+      <c r="P29" s="1">
+        <f>MIN(O29,P28)+P8</f>
+        <v>711</v>
+      </c>
+      <c r="Q29" s="1">
+        <f>MIN(P29,Q28)+Q8</f>
+        <v>803</v>
+      </c>
+      <c r="R29" s="1">
+        <f>MIN(Q29,R28)+R8</f>
+        <v>897</v>
+      </c>
+      <c r="S29" s="10">
+        <f t="shared" si="6"/>
+        <v>1179</v>
+      </c>
+      <c r="T29" s="1">
+        <f>MIN(S29,T28)+T8</f>
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
+        <f t="shared" si="1"/>
+        <v>559</v>
+      </c>
+      <c r="B30" s="1">
+        <f>MIN(A30,B29)+B9</f>
+        <v>454</v>
+      </c>
+      <c r="C30" s="1">
+        <f>MIN(B30,C29)+C9</f>
+        <v>494</v>
+      </c>
+      <c r="D30" s="1">
+        <f>MIN(C30,D29)+D9</f>
+        <v>533</v>
+      </c>
+      <c r="E30" s="10">
+        <f t="shared" si="4"/>
+        <v>600</v>
+      </c>
+      <c r="F30" s="1">
+        <f>MIN(E30,F29)+F9</f>
+        <v>604</v>
+      </c>
+      <c r="G30" s="1">
+        <f>MIN(F30,G29)+G9</f>
+        <v>449</v>
+      </c>
+      <c r="H30" s="1">
+        <f>MIN(G30,H29)+H9</f>
+        <v>461</v>
+      </c>
+      <c r="I30" s="1">
+        <f>MIN(H30,I29)+I9</f>
+        <v>469</v>
+      </c>
+      <c r="J30" s="1">
+        <f>MIN(I30,J29)+J9</f>
+        <v>486</v>
+      </c>
+      <c r="K30" s="1">
+        <f>MIN(J30,K29)+K9</f>
+        <v>499</v>
+      </c>
+      <c r="L30" s="1">
+        <f>MIN(K30,L29)+L9</f>
+        <v>511</v>
+      </c>
+      <c r="M30" s="1">
+        <f>MIN(L30,M29)+M9</f>
+        <v>520</v>
+      </c>
+      <c r="N30" s="1">
+        <f>MIN(M30,N29)+N9</f>
+        <v>581</v>
+      </c>
+      <c r="O30" s="1">
+        <f>MIN(N30,O29)+O9</f>
+        <v>667</v>
+      </c>
+      <c r="P30" s="1">
+        <f>MIN(O30,P29)+P9</f>
+        <v>723</v>
+      </c>
+      <c r="Q30" s="1">
+        <f>MIN(P30,Q29)+Q9</f>
+        <v>815</v>
+      </c>
+      <c r="R30" s="1">
+        <f>MIN(Q30,R29)+R9</f>
+        <v>887</v>
+      </c>
+      <c r="S30" s="10">
+        <f t="shared" si="6"/>
+        <v>1226</v>
+      </c>
+      <c r="T30" s="1">
+        <f>MIN(S30,T29)+T9</f>
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" s="6">
+        <f t="shared" si="1"/>
+        <v>628</v>
+      </c>
+      <c r="B31" s="1">
+        <f>MIN(A31,B30)+B10</f>
+        <v>496</v>
+      </c>
+      <c r="C31" s="1">
+        <f>MIN(B31,C30)+C10</f>
+        <v>543</v>
+      </c>
+      <c r="D31" s="1">
+        <f>MIN(C31,D30)+D10</f>
+        <v>574</v>
+      </c>
+      <c r="E31" s="10">
+        <f t="shared" si="4"/>
+        <v>655</v>
+      </c>
+      <c r="F31" s="1">
+        <f>MIN(E31,F30)+F10</f>
+        <v>675</v>
+      </c>
+      <c r="G31" s="1">
+        <f>MIN(F31,G30)+G10</f>
+        <v>461</v>
+      </c>
+      <c r="H31" s="1">
+        <f>MIN(G31,H30)+H10</f>
+        <v>481</v>
+      </c>
+      <c r="I31" s="1">
+        <f>MIN(H31,I30)+I10</f>
+        <v>488</v>
+      </c>
+      <c r="J31" s="1">
+        <f>MIN(I31,J30)+J10</f>
+        <v>494</v>
+      </c>
+      <c r="K31" s="1">
+        <f>MIN(J31,K30)+K10</f>
+        <v>506</v>
+      </c>
+      <c r="L31" s="1">
+        <f>MIN(K31,L30)+L10</f>
+        <v>525</v>
+      </c>
+      <c r="M31" s="1">
+        <f>MIN(L31,M30)+M10</f>
+        <v>532</v>
+      </c>
+      <c r="N31" s="1">
+        <f>MIN(M31,N30)+N10</f>
+        <v>568</v>
+      </c>
+      <c r="O31" s="1">
+        <f>MIN(N31,O30)+O10</f>
+        <v>622</v>
+      </c>
+      <c r="P31" s="1">
+        <f>MIN(O31,P30)+P10</f>
+        <v>700</v>
+      </c>
+      <c r="Q31" s="1">
+        <f>MIN(P31,Q30)+Q10</f>
+        <v>717</v>
+      </c>
+      <c r="R31" s="1">
+        <f>MIN(Q31,R30)+R10</f>
+        <v>744</v>
+      </c>
+      <c r="S31" s="10">
+        <f t="shared" si="6"/>
+        <v>1293</v>
+      </c>
+      <c r="T31" s="1">
+        <f>MIN(S31,T30)+T10</f>
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" s="6">
+        <f t="shared" si="1"/>
+        <v>711</v>
+      </c>
+      <c r="B32" s="1">
+        <f>MIN(A32,B31)+B11</f>
+        <v>521</v>
+      </c>
+      <c r="C32" s="1">
+        <f>MIN(B32,C31)+C11</f>
+        <v>579</v>
+      </c>
+      <c r="D32" s="1">
+        <f>MIN(C32,D31)+D11</f>
+        <v>609</v>
+      </c>
+      <c r="E32" s="10">
+        <f t="shared" si="4"/>
+        <v>705</v>
+      </c>
+      <c r="F32" s="1">
+        <f>MIN(E32,F31)+F11</f>
+        <v>688</v>
+      </c>
+      <c r="G32" s="1">
+        <f>MIN(F32,G31)+G11</f>
+        <v>472</v>
+      </c>
+      <c r="H32" s="1">
+        <f>MIN(G32,H31)+H11</f>
+        <v>485</v>
+      </c>
+      <c r="I32" s="1">
+        <f>MIN(H32,I31)+I11</f>
+        <v>498</v>
+      </c>
+      <c r="J32" s="1">
+        <f>MIN(I32,J31)+J11</f>
+        <v>502</v>
+      </c>
+      <c r="K32" s="1">
+        <f>MIN(J32,K31)+K11</f>
+        <v>518</v>
+      </c>
+      <c r="L32" s="1">
+        <f>MIN(K32,L31)+L11</f>
+        <v>534</v>
+      </c>
+      <c r="M32" s="1">
+        <f>MIN(L32,M31)+M11</f>
+        <v>544</v>
+      </c>
+      <c r="N32" s="1">
+        <f>MIN(M32,N31)+N11</f>
+        <v>574</v>
+      </c>
+      <c r="O32" s="1">
+        <f>MIN(N32,O31)+O11</f>
+        <v>581</v>
+      </c>
+      <c r="P32" s="1">
+        <f>MIN(O32,P31)+P11</f>
+        <v>636</v>
+      </c>
+      <c r="Q32" s="1">
+        <f>MIN(P32,Q31)+Q11</f>
+        <v>667</v>
+      </c>
+      <c r="R32" s="1">
+        <f>MIN(Q32,R31)+R11</f>
+        <v>697</v>
+      </c>
+      <c r="S32" s="10">
+        <f t="shared" si="6"/>
+        <v>1348</v>
+      </c>
+      <c r="T32" s="1">
+        <f>MIN(S32,T31)+T11</f>
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A33" s="6">
+        <f t="shared" si="1"/>
+        <v>740</v>
+      </c>
+      <c r="B33" s="1">
+        <f>MIN(A33,B32)+B12</f>
+        <v>584</v>
+      </c>
+      <c r="C33" s="1">
+        <f>MIN(B33,C32)+C12</f>
+        <v>605</v>
+      </c>
+      <c r="D33" s="1">
+        <f>MIN(C33,D32)+D12</f>
+        <v>693</v>
+      </c>
+      <c r="E33" s="10">
+        <f t="shared" si="4"/>
+        <v>793</v>
+      </c>
+      <c r="F33" s="1">
+        <f>MIN(E33,F32)+F12</f>
+        <v>732</v>
+      </c>
+      <c r="G33" s="1">
+        <f>MIN(F33,G32)+G12</f>
+        <v>491</v>
+      </c>
+      <c r="H33" s="1">
+        <f>MIN(G33,H32)+H12</f>
+        <v>491</v>
+      </c>
+      <c r="I33" s="1">
+        <f>MIN(H33,I32)+I12</f>
+        <v>509</v>
+      </c>
+      <c r="J33" s="1">
+        <f>MIN(I33,J32)+J12</f>
+        <v>509</v>
+      </c>
+      <c r="K33" s="1">
+        <f>MIN(J33,K32)+K12</f>
+        <v>529</v>
+      </c>
+      <c r="L33" s="1">
+        <f>MIN(K33,L32)+L12</f>
+        <v>534</v>
+      </c>
+      <c r="M33" s="1">
+        <f>MIN(L33,M32)+M12</f>
+        <v>539</v>
+      </c>
+      <c r="N33" s="1">
+        <f>MIN(M33,N32)+N12</f>
+        <v>612</v>
+      </c>
+      <c r="O33" s="1">
+        <f>MIN(N33,O32)+O12</f>
+        <v>645</v>
+      </c>
+      <c r="P33" s="1">
+        <f>MIN(O33,P32)+P12</f>
+        <v>689</v>
+      </c>
+      <c r="Q33" s="1">
+        <f>MIN(P33,Q32)+Q12</f>
+        <v>735</v>
+      </c>
+      <c r="R33" s="1">
+        <f>MIN(Q33,R32)+R12</f>
+        <v>710</v>
+      </c>
+      <c r="S33" s="10">
+        <f t="shared" si="6"/>
+        <v>1425</v>
+      </c>
+      <c r="T33" s="1">
+        <f>MIN(S33,T32)+T12</f>
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="6">
+        <f t="shared" si="1"/>
+        <v>777</v>
+      </c>
+      <c r="B34" s="1">
+        <f>MIN(A34,B33)+B13</f>
+        <v>676</v>
+      </c>
+      <c r="C34" s="1">
+        <f>MIN(B34,C33)+C13</f>
+        <v>670</v>
+      </c>
+      <c r="D34" s="1">
+        <f>MIN(C34,D33)+D13</f>
+        <v>740</v>
+      </c>
+      <c r="E34" s="10">
+        <f t="shared" si="4"/>
+        <v>868</v>
+      </c>
+      <c r="F34" s="1">
+        <f>MIN(E34,F33)+F13</f>
+        <v>793</v>
+      </c>
+      <c r="G34" s="1">
+        <f>MIN(F34,G33)+G13</f>
+        <v>502</v>
+      </c>
+      <c r="H34" s="1">
+        <f>MIN(G34,H33)+H13</f>
+        <v>505</v>
+      </c>
+      <c r="I34" s="1">
+        <f>MIN(H34,I33)+I13</f>
+        <v>513</v>
+      </c>
+      <c r="J34" s="1">
+        <f>MIN(I34,J33)+J13</f>
+        <v>523</v>
+      </c>
+      <c r="K34" s="1">
+        <f>MIN(J34,K33)+K13</f>
+        <v>537</v>
+      </c>
+      <c r="L34" s="1">
+        <f>MIN(K34,L33)+L13</f>
+        <v>540</v>
+      </c>
+      <c r="M34" s="1">
+        <f>MIN(L34,M33)+M13</f>
+        <v>548</v>
+      </c>
+      <c r="N34" s="1">
+        <f>MIN(M34,N33)+N13</f>
+        <v>609</v>
+      </c>
+      <c r="O34" s="1">
+        <f>MIN(N34,O33)+O13</f>
+        <v>677</v>
+      </c>
+      <c r="P34" s="1">
+        <f>MIN(O34,P33)+P13</f>
+        <v>706</v>
+      </c>
+      <c r="Q34" s="1">
+        <f>MIN(P34,Q33)+Q13</f>
+        <v>778</v>
+      </c>
+      <c r="R34" s="1">
+        <f>MIN(Q34,R33)+R13</f>
+        <v>755</v>
+      </c>
+      <c r="S34" s="10">
+        <f t="shared" si="6"/>
+        <v>1453</v>
+      </c>
+      <c r="T34" s="1">
+        <f>MIN(S34,T33)+T13</f>
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6">
+        <f t="shared" si="1"/>
+        <v>825</v>
+      </c>
+      <c r="B35" s="1">
+        <f>MIN(A35,B34)+B14</f>
+        <v>703</v>
+      </c>
+      <c r="C35" s="1">
+        <f>MIN(B35,C34)+C14</f>
+        <v>736</v>
+      </c>
+      <c r="D35" s="1">
+        <f>MIN(C35,D34)+D14</f>
+        <v>816</v>
+      </c>
+      <c r="E35" s="10">
+        <f t="shared" si="4"/>
+        <v>933</v>
+      </c>
+      <c r="F35" s="1">
+        <f>MIN(E35,F34)+F14</f>
+        <v>871</v>
+      </c>
+      <c r="G35" s="1">
+        <f>MIN(F35,G34)+G14</f>
+        <v>553</v>
+      </c>
+      <c r="H35" s="1">
+        <f>MIN(G35,H34)+H14</f>
+        <v>520</v>
+      </c>
+      <c r="I35" s="11">
+        <f t="shared" ref="I35:L35" si="7">H35+I14</f>
+        <v>575</v>
+      </c>
+      <c r="J35" s="11">
+        <f t="shared" si="7"/>
+        <v>617</v>
+      </c>
+      <c r="K35" s="11">
+        <f t="shared" si="7"/>
+        <v>632</v>
+      </c>
+      <c r="L35" s="11">
+        <f t="shared" si="7"/>
+        <v>668</v>
+      </c>
+      <c r="M35" s="10">
+        <f>M34+M14</f>
+        <v>598</v>
+      </c>
+      <c r="N35" s="1">
+        <f>MIN(M35,N34)+N14</f>
+        <v>614</v>
+      </c>
+      <c r="O35" s="1">
+        <f>MIN(N35,O34)+O14</f>
+        <v>645</v>
+      </c>
+      <c r="P35" s="1">
+        <f>MIN(O35,P34)+P14</f>
+        <v>663</v>
+      </c>
+      <c r="Q35" s="1">
+        <f>MIN(P35,Q34)+Q14</f>
+        <v>715</v>
+      </c>
+      <c r="R35" s="1">
+        <f>MIN(Q35,R34)+R14</f>
+        <v>783</v>
+      </c>
+      <c r="S35" s="10">
+        <f t="shared" si="6"/>
+        <v>1490</v>
+      </c>
+      <c r="T35" s="1">
+        <f>MIN(S35,T34)+T14</f>
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="6">
+        <f t="shared" si="1"/>
+        <v>885</v>
+      </c>
+      <c r="B36" s="1">
+        <f>MIN(A36,B35)+B15</f>
+        <v>778</v>
+      </c>
+      <c r="C36" s="1">
+        <f>MIN(B36,C35)+C15</f>
+        <v>817</v>
+      </c>
+      <c r="D36" s="1">
+        <f>MIN(C36,D35)+D15</f>
+        <v>888</v>
+      </c>
+      <c r="E36" s="1">
+        <f>MIN(D36,E35)+E15</f>
+        <v>943</v>
+      </c>
+      <c r="F36" s="1">
+        <f>MIN(E36,F35)+F15</f>
+        <v>897</v>
+      </c>
+      <c r="G36" s="1">
+        <f>MIN(F36,G35)+G15</f>
+        <v>633</v>
+      </c>
+      <c r="H36" s="1">
+        <f>MIN(G36,H35)+H15</f>
+        <v>543</v>
+      </c>
+      <c r="I36" s="1">
+        <f>MIN(H36,I35)+I15</f>
+        <v>613</v>
+      </c>
+      <c r="J36" s="1">
+        <f>MIN(I36,J35)+J15</f>
+        <v>661</v>
+      </c>
+      <c r="K36" s="1">
+        <f>MIN(J36,K35)+K15</f>
+        <v>649</v>
+      </c>
+      <c r="L36" s="1">
+        <f>MIN(K36,L35)+L15</f>
+        <v>709</v>
+      </c>
+      <c r="M36" s="10">
+        <f t="shared" ref="M36:M41" si="8">M35+M15</f>
+        <v>674</v>
+      </c>
+      <c r="N36" s="1">
+        <f>MIN(M36,N35)+N15</f>
+        <v>633</v>
+      </c>
+      <c r="O36" s="1">
+        <f>MIN(N36,O35)+O15</f>
+        <v>694</v>
+      </c>
+      <c r="P36" s="1">
+        <f>MIN(O36,P35)+P15</f>
+        <v>683</v>
+      </c>
+      <c r="Q36" s="1">
+        <f>MIN(P36,Q35)+Q15</f>
+        <v>757</v>
+      </c>
+      <c r="R36" s="17">
+        <f>MIN(Q36,R35)+R15</f>
+        <v>805</v>
+      </c>
+      <c r="S36" s="10">
+        <f t="shared" si="6"/>
+        <v>1552</v>
+      </c>
+      <c r="T36" s="1">
+        <f>MIN(S36,T35)+T15</f>
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="6">
+        <f t="shared" si="1"/>
+        <v>949</v>
+      </c>
+      <c r="B37" s="1">
+        <f>MIN(A37,B36)+B16</f>
+        <v>836</v>
+      </c>
+      <c r="C37" s="1">
+        <f>MIN(B37,C36)+C16</f>
+        <v>916</v>
+      </c>
+      <c r="D37" s="1">
+        <f>MIN(C37,D36)+D16</f>
+        <v>937</v>
+      </c>
+      <c r="E37" s="1">
+        <f>MIN(D37,E36)+E16</f>
+        <v>1012</v>
+      </c>
+      <c r="F37" s="1">
+        <f>MIN(E37,F36)+F16</f>
+        <v>946</v>
+      </c>
+      <c r="G37" s="1">
+        <f>MIN(F37,G36)+G16</f>
+        <v>643</v>
+      </c>
+      <c r="H37" s="1">
+        <f>MIN(G37,H36)+H16</f>
+        <v>603</v>
+      </c>
+      <c r="I37" s="1">
+        <f>MIN(H37,I36)+I16</f>
+        <v>652</v>
+      </c>
+      <c r="J37" s="1">
+        <f>MIN(I37,J36)+J16</f>
+        <v>672</v>
+      </c>
+      <c r="K37" s="1">
+        <f>MIN(J37,K36)+K16</f>
+        <v>724</v>
+      </c>
+      <c r="L37" s="1">
+        <f>MIN(K37,L36)+L16</f>
+        <v>743</v>
+      </c>
+      <c r="M37" s="10">
+        <f t="shared" si="8"/>
+        <v>733</v>
+      </c>
+      <c r="N37" s="1">
+        <f>MIN(M37,N36)+N16</f>
+        <v>661</v>
+      </c>
+      <c r="O37" s="1">
+        <f>MIN(N37,O36)+O16</f>
+        <v>673</v>
+      </c>
+      <c r="P37" s="11">
+        <f t="shared" ref="P37:R37" si="9">O37+P16</f>
+        <v>704</v>
+      </c>
+      <c r="Q37" s="11">
+        <f t="shared" si="9"/>
+        <v>720</v>
+      </c>
+      <c r="R37" s="11">
+        <f t="shared" si="9"/>
+        <v>798</v>
+      </c>
+      <c r="S37" s="1">
+        <f>MIN(R37,S36)+S16</f>
+        <v>869</v>
+      </c>
+      <c r="T37" s="1">
+        <f>MIN(S37,T36)+T16</f>
+        <v>879</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A38" s="6">
+        <f t="shared" si="1"/>
+        <v>1024</v>
+      </c>
+      <c r="B38" s="1">
+        <f>MIN(A38,B37)+B17</f>
+        <v>882</v>
+      </c>
+      <c r="C38" s="1">
+        <f>MIN(B38,C37)+C17</f>
+        <v>937</v>
+      </c>
+      <c r="D38" s="1">
+        <f>MIN(C38,D37)+D17</f>
+        <v>1031</v>
+      </c>
+      <c r="E38" s="1">
+        <f>MIN(D38,E37)+E17</f>
+        <v>1092</v>
+      </c>
+      <c r="F38" s="1">
+        <f>MIN(E38,F37)+F17</f>
+        <v>985</v>
+      </c>
+      <c r="G38" s="1">
+        <f>MIN(F38,G37)+G17</f>
+        <v>712</v>
+      </c>
+      <c r="H38" s="1">
+        <f>MIN(G38,H37)+H17</f>
+        <v>635</v>
+      </c>
+      <c r="I38" s="1">
+        <f>MIN(H38,I37)+I17</f>
+        <v>685</v>
+      </c>
+      <c r="J38" s="1">
+        <f>MIN(I38,J37)+J17</f>
+        <v>683</v>
+      </c>
+      <c r="K38" s="1">
+        <f>MIN(J38,K37)+K17</f>
+        <v>739</v>
+      </c>
+      <c r="L38" s="1">
+        <f>MIN(K38,L37)+L17</f>
+        <v>789</v>
+      </c>
+      <c r="M38" s="10">
+        <f t="shared" si="8"/>
+        <v>743</v>
+      </c>
+      <c r="N38" s="1">
+        <f>MIN(M38,N37)+N17</f>
+        <v>732</v>
+      </c>
+      <c r="O38" s="1">
+        <f>MIN(N38,O37)+O17</f>
+        <v>732</v>
+      </c>
+      <c r="P38" s="1">
+        <f>MIN(O38,P37)+P17</f>
+        <v>784</v>
+      </c>
+      <c r="Q38" s="1">
+        <f>MIN(P38,Q37)+Q17</f>
+        <v>791</v>
+      </c>
+      <c r="R38" s="1">
+        <f>MIN(Q38,R37)+R17</f>
+        <v>828</v>
+      </c>
+      <c r="S38" s="1">
+        <f>MIN(R38,S37)+S17</f>
+        <v>879</v>
+      </c>
+      <c r="T38" s="1">
+        <f>MIN(S38,T37)+T17</f>
+        <v>890</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A39" s="6">
+        <f t="shared" si="1"/>
+        <v>1122</v>
+      </c>
+      <c r="B39" s="1">
+        <f>MIN(A39,B38)+B18</f>
+        <v>967</v>
+      </c>
+      <c r="C39" s="1">
+        <f>MIN(B39,C38)+C18</f>
+        <v>969</v>
+      </c>
+      <c r="D39" s="1">
+        <f>MIN(C39,D38)+D18</f>
+        <v>1055</v>
+      </c>
+      <c r="E39" s="1">
+        <f>MIN(D39,E38)+E18</f>
+        <v>1129</v>
+      </c>
+      <c r="F39" s="1">
+        <f>MIN(E39,F38)+F18</f>
+        <v>1047</v>
+      </c>
+      <c r="G39" s="1">
+        <f>MIN(F39,G38)+G18</f>
+        <v>747</v>
+      </c>
+      <c r="H39" s="1">
+        <f>MIN(G39,H38)+H18</f>
+        <v>703</v>
+      </c>
+      <c r="I39" s="1">
+        <f>MIN(H39,I38)+I18</f>
+        <v>728</v>
+      </c>
+      <c r="J39" s="1">
+        <f>MIN(I39,J38)+J18</f>
+        <v>742</v>
+      </c>
+      <c r="K39" s="1">
+        <f>MIN(J39,K38)+K18</f>
+        <v>806</v>
+      </c>
+      <c r="L39" s="1">
+        <f>MIN(K39,L38)+L18</f>
+        <v>847</v>
+      </c>
+      <c r="M39" s="10">
+        <f t="shared" si="8"/>
+        <v>784</v>
+      </c>
+      <c r="N39" s="1">
+        <f>MIN(M39,N38)+N18</f>
+        <v>793</v>
+      </c>
+      <c r="O39" s="1">
+        <f>MIN(N39,O38)+O18</f>
+        <v>743</v>
+      </c>
+      <c r="P39" s="1">
+        <f>MIN(O39,P38)+P18</f>
+        <v>776</v>
+      </c>
+      <c r="Q39" s="1">
+        <f>MIN(P39,Q38)+Q18</f>
+        <v>794</v>
+      </c>
+      <c r="R39" s="1">
+        <f>MIN(Q39,R38)+R18</f>
+        <v>867</v>
+      </c>
+      <c r="S39" s="1">
+        <f>MIN(R39,S38)+S18</f>
+        <v>935</v>
+      </c>
+      <c r="T39" s="1">
+        <f>MIN(S39,T38)+T18</f>
+        <v>929</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A40" s="6">
+        <f t="shared" si="1"/>
+        <v>1221</v>
+      </c>
+      <c r="B40" s="1">
+        <f>MIN(A40,B39)+B19</f>
+        <v>1037</v>
+      </c>
+      <c r="C40" s="1">
+        <f>MIN(B40,C39)+C19</f>
+        <v>1059</v>
+      </c>
+      <c r="D40" s="1">
+        <f>MIN(C40,D39)+D19</f>
+        <v>1121</v>
+      </c>
+      <c r="E40" s="1">
+        <f>MIN(D40,E39)+E19</f>
+        <v>1168</v>
+      </c>
+      <c r="F40" s="1">
+        <f>MIN(E40,F39)+F19</f>
+        <v>1127</v>
+      </c>
+      <c r="G40" s="1">
+        <f>MIN(F40,G39)+G19</f>
+        <v>756</v>
+      </c>
+      <c r="H40" s="1">
+        <f>MIN(G40,H39)+H19</f>
+        <v>765</v>
+      </c>
+      <c r="I40" s="1">
+        <f>MIN(H40,I39)+I19</f>
+        <v>790</v>
+      </c>
+      <c r="J40" s="1">
+        <f>MIN(I40,J39)+J19</f>
+        <v>798</v>
+      </c>
+      <c r="K40" s="1">
+        <f>MIN(J40,K39)+K19</f>
+        <v>875</v>
+      </c>
+      <c r="L40" s="1">
+        <f>MIN(K40,L39)+L19</f>
+        <v>858</v>
+      </c>
+      <c r="M40" s="10">
+        <f t="shared" si="8"/>
+        <v>800</v>
+      </c>
+      <c r="N40" s="1">
+        <f>MIN(M40,N39)+N19</f>
+        <v>848</v>
+      </c>
+      <c r="O40" s="1">
+        <f>MIN(N40,O39)+O19</f>
+        <v>822</v>
+      </c>
+      <c r="P40" s="1">
+        <f>MIN(O40,P39)+P19</f>
+        <v>798</v>
+      </c>
+      <c r="Q40" s="1">
+        <f>MIN(P40,Q39)+Q19</f>
+        <v>856</v>
+      </c>
+      <c r="R40" s="1">
+        <f>MIN(Q40,R39)+R19</f>
+        <v>870</v>
+      </c>
+      <c r="S40" s="1">
+        <f>MIN(R40,S39)+S19</f>
+        <v>891</v>
+      </c>
+      <c r="T40" s="1">
+        <f>MIN(S40,T39)+T19</f>
+        <v>916</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A41" s="6">
+        <f t="shared" si="1"/>
+        <v>1276</v>
+      </c>
+      <c r="B41" s="1">
+        <f>MIN(A41,B40)+B20</f>
+        <v>1074</v>
+      </c>
+      <c r="C41" s="1">
+        <f>MIN(B41,C40)+C20</f>
+        <v>1136</v>
+      </c>
+      <c r="D41" s="1">
+        <f>MIN(C41,D40)+D20</f>
+        <v>1211</v>
+      </c>
+      <c r="E41" s="1">
+        <f>MIN(D41,E40)+E20</f>
+        <v>1233</v>
+      </c>
+      <c r="F41" s="1">
+        <f>MIN(E41,F40)+F20</f>
+        <v>1137</v>
+      </c>
+      <c r="G41" s="1">
+        <f>MIN(F41,G40)+G20</f>
+        <v>770</v>
+      </c>
+      <c r="H41" s="1">
+        <f>MIN(G41,H40)+H20</f>
+        <v>802</v>
+      </c>
+      <c r="I41" s="1">
+        <f>MIN(H41,I40)+I20</f>
+        <v>869</v>
+      </c>
+      <c r="J41" s="1">
+        <f>MIN(I41,J40)+J20</f>
+        <v>878</v>
+      </c>
+      <c r="K41" s="1">
+        <f>MIN(J41,K40)+K20</f>
+        <v>900</v>
+      </c>
+      <c r="L41" s="17">
+        <f>MIN(K41,L40)+L20</f>
+        <v>894</v>
+      </c>
+      <c r="M41" s="10">
+        <f t="shared" si="8"/>
+        <v>823</v>
+      </c>
+      <c r="N41" s="1">
+        <f>MIN(M41,N40)+N20</f>
+        <v>855</v>
+      </c>
+      <c r="O41" s="1">
+        <f>MIN(N41,O40)+O20</f>
+        <v>859</v>
+      </c>
+      <c r="P41" s="1">
+        <f>MIN(O41,P40)+P20</f>
+        <v>878</v>
+      </c>
+      <c r="Q41" s="1">
+        <f>MIN(P41,Q40)+Q20</f>
+        <v>906</v>
+      </c>
+      <c r="R41" s="1">
+        <f>MIN(Q41,R40)+R20</f>
+        <v>885</v>
+      </c>
+      <c r="S41" s="1">
+        <f>MIN(R41,S40)+S20</f>
+        <v>903</v>
+      </c>
+      <c r="T41" s="17">
+        <f>MIN(S41,T40)+T20</f>
+        <v>925</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
